--- a/HDI2018.xlsx
+++ b/HDI2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{023F6D59-B8A4-6246-9A9E-6DF53E8DAFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AAC4A7-DDC7-E74E-87BB-5E757C057B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,19 +616,19 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Life expectancy</t>
-  </si>
-  <si>
     <t>HDI</t>
   </si>
   <si>
-    <t>Gross national income PC</t>
-  </si>
-  <si>
-    <t>Expected years schooling</t>
-  </si>
-  <si>
-    <t>Mean years schooling</t>
+    <t>Gross national income (GNI) PC</t>
+  </si>
+  <si>
+    <t>Expected years schooling (EYS)</t>
+  </si>
+  <si>
+    <t>Mean years schooling (MYS)</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth (LE)</t>
   </si>
 </sst>
 </file>
@@ -994,10 +994,10 @@
   <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A191" sqref="A191:XFD191"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1015,19 +1015,19 @@
         <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="14">
